--- a/3_metrics/precision for RQ1 RQ2 RQ3.xlsx
+++ b/3_metrics/precision for RQ1 RQ2 RQ3.xlsx
@@ -7,17 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="3" r:id="rId1"/>
-    <sheet name="RQ1" sheetId="5" r:id="rId2"/>
-    <sheet name="RQ2" sheetId="6" r:id="rId3"/>
-    <sheet name="RQ3" sheetId="7" r:id="rId4"/>
+    <sheet name="RQ1" sheetId="5" r:id="rId1"/>
+    <sheet name="RQ2" sheetId="6" r:id="rId2"/>
+    <sheet name="RQ3" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>hop_one</t>
   </si>
@@ -35,44 +34,26 @@
   </si>
   <si>
     <t>SVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSTM</t>
-  </si>
-  <si>
-    <t>SVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSTM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,18 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hop_four_sim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision std</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Precision mean for RQ1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,23 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bs_pscout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bs_axplorer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bs_axplorer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_pscout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_pscout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,30 +121,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,24 +169,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,578 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K32"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.23860000000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.58169999999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.43890000000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.40539999999999998</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.3952</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.38729999999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.41470000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.2281</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.2137</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.38990000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.40050000000000002</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.37940000000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.34339999999999998</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.37709999999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.37469999999999998</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.37680000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.1865</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.2225</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.22989999999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.33760000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.31619999999999998</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.30230000000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.34439999999999998</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.32169999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.6038</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.54449999999999998</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.95809999999999995</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.96130000000000004</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.95889999999999997</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.95879999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.83389999999999997</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.94210000000000005</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.78759999999999997</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.94679999999999997</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.94969999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.1055</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.46289999999999998</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.435</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.95820000000000005</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.63029999999999997</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.44159999999999999</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.28820000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.45E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.13539999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.1739</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.17829999999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.1618</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.17449999999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.19120000000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.15310000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.1263</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.12180000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.13550000000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.184</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.12540000000000001</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.14460000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.1032</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.1217</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.1376</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.1484</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.1479</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.1426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.21659999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.30059999999999998</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.11269999999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.1071</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.1009</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.17949999999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.114</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.1067</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.1032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.2787</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.15260000000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.1116</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.1081</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.1946</v>
-      </c>
-      <c r="I17" s="2">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.1108</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.1681</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.21390000000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.1138</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.1089</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.23580000000000001</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.21510000000000001</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.1525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="K32" s="5"/>
-    </row>
-  </sheetData>
-  <sortState ref="I13:I18">
-    <sortCondition ref="I10:I15"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A11:K11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,13 +500,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
@@ -1167,7 +524,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>0.26500000000000001</v>
@@ -1184,7 +541,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>0.2137</v>
@@ -1201,7 +558,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>0.2225</v>
@@ -1218,7 +575,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>0.54449999999999998</v>
@@ -1235,7 +592,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>0.50819999999999999</v>
@@ -1252,7 +609,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>0.435</v>
@@ -1268,13 +625,13 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
@@ -1292,7 +649,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>0.1739</v>
@@ -1309,7 +666,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>0.12180000000000001</v>
@@ -1326,7 +683,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>0.14419999999999999</v>
@@ -1343,7 +700,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>0.30059999999999998</v>
@@ -1360,7 +717,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>0.2787</v>
@@ -1377,7 +734,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>0.21390000000000001</v>
@@ -1402,7 +759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J19"/>
   <sheetViews>
@@ -1424,17 +781,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
@@ -1442,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1465,7 +822,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>0.26500000000000001</v>
@@ -1494,7 +851,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>0.2137</v>
@@ -1523,7 +880,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>0.2225</v>
@@ -1552,7 +909,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>0.54449999999999998</v>
@@ -1581,7 +938,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>0.50819999999999999</v>
@@ -1610,7 +967,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>0.435</v>
@@ -1638,17 +995,17 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
@@ -1656,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>3</v>
@@ -1679,7 +1036,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>0.1739</v>
@@ -1708,7 +1065,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>0.12180000000000001</v>
@@ -1737,7 +1094,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>0.14419999999999999</v>
@@ -1766,7 +1123,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>0.30059999999999998</v>
@@ -1795,7 +1152,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>0.2787</v>
@@ -1824,7 +1181,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>0.21390000000000001</v>
@@ -1861,242 +1218,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>6.1199999999999997E-2</v>
+        <v>0.23860000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.23860000000000001</v>
-      </c>
-      <c r="E4" s="2">
         <v>0.40539999999999998</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>6.1600000000000002E-2</v>
+        <v>0.2281</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2281</v>
-      </c>
-      <c r="E5" s="2">
         <v>0.37940000000000002</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>5.0700000000000002E-2</v>
+        <v>0.1865</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1865</v>
-      </c>
-      <c r="E6" s="2">
         <v>0.31619999999999998</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>7.8799999999999995E-2</v>
+        <v>0.6038</v>
       </c>
       <c r="D7" s="2">
-        <v>0.6038</v>
-      </c>
-      <c r="E7" s="2">
         <v>0.96130000000000004</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>6.1699999999999998E-2</v>
+        <v>0.58450000000000002</v>
       </c>
       <c r="D8" s="2">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="E8" s="2">
         <v>0.94210000000000005</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>0.1055</v>
+        <v>0.46289999999999998</v>
       </c>
       <c r="D9" s="2">
-        <v>0.46289999999999998</v>
-      </c>
-      <c r="E9" s="2">
         <v>0.95820000000000005</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>5.45E-2</v>
+        <v>0.13539999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.13539999999999999</v>
-      </c>
-      <c r="E14" s="2">
         <v>0.1618</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>5.4100000000000002E-2</v>
+        <v>0.1263</v>
       </c>
       <c r="D15" s="2">
-        <v>0.1263</v>
-      </c>
-      <c r="E15" s="2">
         <v>0.15090000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>0.11119999999999999</v>
+        <v>0.1032</v>
       </c>
       <c r="D16" s="2">
-        <v>0.1032</v>
-      </c>
-      <c r="E16" s="2">
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
-        <v>7.0999999999999994E-2</v>
+        <v>0.21659999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>0.21659999999999999</v>
-      </c>
-      <c r="E17" s="2">
         <v>0.1009</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
-        <v>5.4199999999999998E-2</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="D18" s="2">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="E18" s="2">
         <v>0.1081</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>0.10340000000000001</v>
+        <v>0.1681</v>
       </c>
       <c r="D19" s="2">
-        <v>0.1681</v>
-      </c>
-      <c r="E19" s="2">
         <v>0.1089</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3_metrics/precision for RQ1 RQ2 RQ3.xlsx
+++ b/3_metrics/precision for RQ1 RQ2 RQ3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>hop_one</t>
   </si>
@@ -98,6 +98,30 @@
   </si>
   <si>
     <t>bs_axplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision std without outlier for RQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision mean without outlier for RQ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision std without outlier for RQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision mean without outlier for RQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision mean without outlier for RQ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision std without outlier for RQ3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,10 +199,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,16 +507,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -500,13 +524,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
@@ -625,13 +649,13 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
@@ -749,10 +773,262 @@
         <v>0.1089</v>
       </c>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.44359999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.41460000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3664</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.3453</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.8871</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.43690000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.2049</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.2034</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.17510000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1711</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.2155</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.17649999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.1197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2339</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.2999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.32679999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -761,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,17 +1057,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
@@ -995,17 +1271,17 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
@@ -1208,10 +1484,440 @@
         <v>0.1525</v>
       </c>
     </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.44619999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.4289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.3664</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.3453</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.9405</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.9153</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.8871</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.38250000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.2049</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.2117</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.2034</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.2059</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.18060000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.1711</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.2155</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.2122</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.18140000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.1724</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.1197</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.13189999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.2339</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.2999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.2767</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.21149999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,28 +1926,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
@@ -1326,12 +2033,12 @@
       <c r="E9" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
@@ -1407,10 +2114,174 @@
         <v>0.1089</v>
       </c>
     </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.4395</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.44359999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.41460000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3453</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.8488</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.43690000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.2485</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.17510000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.17649999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.1246</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.1197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.24429999999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.32679999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
